--- a/MedicalLink/Templates/BC_TienBenhNhanPhaiThanhToan_ChiTiet.xlsx
+++ b/MedicalLink/Templates/BC_TienBenhNhanPhaiThanhToan_ChiTiet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Khác</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].SLBN_TONG</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Vật tư thay thế</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>&amp;=[DATA1].PATIENTNAME</t>
   </si>
   <si>
-    <t>BÁO CÁO CHI TIẾT THU HÓA ĐƠN THEO KHOA</t>
-  </si>
-  <si>
     <t>Năm sinh</t>
   </si>
   <si>
@@ -183,6 +177,15 @@
   </si>
   <si>
     <t>&amp;=[DATA1].MONEY_GIUONG_BNTT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].ISGROUP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].BHYTCODE</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHI TIẾT TIỀN BỆNH NHÂN PHẢI TRẢ</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -423,6 +426,21 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,18 +460,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,7 +470,19 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -746,117 +764,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X15"/>
+  <dimension ref="A2:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:P3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" customWidth="1"/>
     <col min="2" max="3" width="11.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="2" customWidth="1"/>
     <col min="5" max="6" width="8.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="18.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="16.28515625" style="1" customWidth="1"/>
     <col min="11" max="21" width="17" style="1" customWidth="1"/>
-    <col min="22" max="24" width="12" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="23" width="8.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12" style="1" customWidth="1"/>
+    <col min="25" max="25" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="2"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+    </row>
+    <row r="3" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:25" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="G7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
     </row>
-    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:24" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-    </row>
-    <row r="8" spans="1:24" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="26"/>
+    <row r="8" spans="1:25" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="10" t="s">
         <v>5</v>
       </c>
@@ -885,10 +907,10 @@
         <v>13</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V8" s="12" t="s">
         <v>14</v>
@@ -900,7 +922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -974,89 +996,92 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="25" t="s">
+      <c r="K10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="L10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="11" t="s">
+      <c r="M10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="O10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="P10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="R10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="S10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="T10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="U10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="W10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="V10" s="9" t="s">
+      <c r="X10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="W10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="X10" s="9" t="s">
+      <c r="Y10" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:25" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1118,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1140,6 +1165,11 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
   </mergeCells>
+  <conditionalFormatting sqref="A10:X10">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$Y10=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/MedicalLink/Templates/BC_TienBenhNhanPhaiThanhToan_ChiTiet.xlsx
+++ b/MedicalLink/Templates/BC_TienBenhNhanPhaiThanhToan_ChiTiet.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>STT</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>BÁO CÁO CHI TIẾT TIỀN BỆNH NHÂN PHẢI TRẢ</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -764,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:P3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,6 +788,11 @@
     <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
